--- a/data/pca/factorExposure/factorExposure_2018-02-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.006112273440469138</v>
+        <v>-0.0119738613259274</v>
       </c>
       <c r="C2">
-        <v>-0.02041752459082441</v>
+        <v>0.02509571550599482</v>
       </c>
       <c r="D2">
-        <v>-0.02246017516208371</v>
+        <v>-0.02410738605798823</v>
       </c>
       <c r="E2">
-        <v>-0.02090166645701921</v>
+        <v>-0.01901390455070417</v>
       </c>
       <c r="F2">
-        <v>-0.07508520463585806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01169976131132083</v>
+      </c>
+      <c r="G2">
+        <v>0.009214916410555609</v>
+      </c>
+      <c r="H2">
+        <v>0.04141170980464943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09276194698194157</v>
+        <v>-0.05248819083188443</v>
       </c>
       <c r="C3">
-        <v>-0.03631674062401913</v>
+        <v>0.07509245665452245</v>
       </c>
       <c r="D3">
-        <v>-0.0009648561987326698</v>
+        <v>-0.006147052168378462</v>
       </c>
       <c r="E3">
-        <v>-0.1062829208333848</v>
+        <v>-0.05976236261754041</v>
       </c>
       <c r="F3">
-        <v>-0.2827269714831226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04763010779645669</v>
+      </c>
+      <c r="G3">
+        <v>0.0164859795524705</v>
+      </c>
+      <c r="H3">
+        <v>0.1162519516579594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03975271731633266</v>
+        <v>-0.03621570142317028</v>
       </c>
       <c r="C4">
-        <v>0.0001305405789238502</v>
+        <v>0.06835625192526469</v>
       </c>
       <c r="D4">
-        <v>-0.02619387450191626</v>
+        <v>-0.01697538241372055</v>
       </c>
       <c r="E4">
-        <v>0.02525386135628552</v>
+        <v>0.009632837816332281</v>
       </c>
       <c r="F4">
-        <v>-0.06359888981814311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0242278154123804</v>
+      </c>
+      <c r="G4">
+        <v>0.0487841527359312</v>
+      </c>
+      <c r="H4">
+        <v>0.04998701729316572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03790270521638396</v>
+        <v>-0.017090118456639</v>
       </c>
       <c r="C6">
-        <v>-0.0112524821079219</v>
+        <v>0.0615879087619907</v>
       </c>
       <c r="D6">
-        <v>-0.03905715532537993</v>
+        <v>-0.01236684774138296</v>
       </c>
       <c r="E6">
-        <v>0.02836595268572356</v>
+        <v>0.0121940681605698</v>
       </c>
       <c r="F6">
-        <v>-0.03375173539664992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.001384544823119367</v>
+      </c>
+      <c r="G6">
+        <v>0.02992716490617605</v>
+      </c>
+      <c r="H6">
+        <v>0.04562611728340889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04021335547914447</v>
+        <v>-0.005105227987670082</v>
       </c>
       <c r="C7">
-        <v>0.03472886444357688</v>
+        <v>0.03797903829031891</v>
       </c>
       <c r="D7">
-        <v>-0.01926777889113171</v>
+        <v>-0.01050812706829392</v>
       </c>
       <c r="E7">
-        <v>0.006987498372449425</v>
+        <v>0.02090100228810966</v>
       </c>
       <c r="F7">
-        <v>-0.03576186804949878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04487313803665596</v>
+      </c>
+      <c r="G7">
+        <v>-0.0007846917304598671</v>
+      </c>
+      <c r="H7">
+        <v>0.02336617622208554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01004346369034549</v>
+        <v>0.005434978632056388</v>
       </c>
       <c r="C8">
-        <v>0.009064883989515295</v>
+        <v>0.004471778704418725</v>
       </c>
       <c r="D8">
-        <v>-0.02893408373809353</v>
+        <v>-0.001786152925329963</v>
       </c>
       <c r="E8">
-        <v>0.01841031657682654</v>
+        <v>-0.0008466255207091559</v>
       </c>
       <c r="F8">
-        <v>-0.06154802907503837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02140102735849709</v>
+      </c>
+      <c r="G8">
+        <v>0.0148979362755163</v>
+      </c>
+      <c r="H8">
+        <v>0.02387871194049383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03417029381168798</v>
+        <v>-0.01821481108422576</v>
       </c>
       <c r="C9">
-        <v>0.0006817822815373096</v>
+        <v>0.04829128207689295</v>
       </c>
       <c r="D9">
-        <v>-0.02634774429481846</v>
+        <v>-0.01198966740351009</v>
       </c>
       <c r="E9">
-        <v>-0.005108584533538505</v>
+        <v>0.007336404545030967</v>
       </c>
       <c r="F9">
-        <v>-0.06853339795432654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01704527319754709</v>
+      </c>
+      <c r="G9">
+        <v>0.01577773772742584</v>
+      </c>
+      <c r="H9">
+        <v>0.04810398788971204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05216223286330827</v>
+        <v>-0.1365837436089885</v>
       </c>
       <c r="C10">
-        <v>-0.0195538234791715</v>
+        <v>-0.1450095500846945</v>
       </c>
       <c r="D10">
-        <v>0.1481815582023227</v>
+        <v>0.02046009012500363</v>
       </c>
       <c r="E10">
-        <v>-0.08516467907357576</v>
+        <v>-0.0322441013860995</v>
       </c>
       <c r="F10">
-        <v>-0.01938361559646079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02222491648855234</v>
+      </c>
+      <c r="G10">
+        <v>-0.03064210936204783</v>
+      </c>
+      <c r="H10">
+        <v>-0.003840410896490766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02617194546185173</v>
+        <v>-0.012783406464828</v>
       </c>
       <c r="C11">
-        <v>-0.0128393334765915</v>
+        <v>0.04877475976983555</v>
       </c>
       <c r="D11">
-        <v>-0.03830233894654608</v>
+        <v>0.001265920258999274</v>
       </c>
       <c r="E11">
-        <v>0.02491640312053078</v>
+        <v>0.01029348875088413</v>
       </c>
       <c r="F11">
-        <v>-0.02549490435859459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.002262097485429387</v>
+      </c>
+      <c r="G11">
+        <v>0.01413572902657012</v>
+      </c>
+      <c r="H11">
+        <v>0.04504629026031013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03824533354621826</v>
+        <v>-0.01691583530630188</v>
       </c>
       <c r="C12">
-        <v>-0.01179145400859446</v>
+        <v>0.0456156368812639</v>
       </c>
       <c r="D12">
-        <v>-0.0344822212288623</v>
+        <v>-0.00265494276098151</v>
       </c>
       <c r="E12">
-        <v>0.03467997732688382</v>
+        <v>0.01867878734321189</v>
       </c>
       <c r="F12">
-        <v>-0.004459252473731443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.006236129269056976</v>
+      </c>
+      <c r="G12">
+        <v>0.007370009336108299</v>
+      </c>
+      <c r="H12">
+        <v>0.01868155826644311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.00920643424464675</v>
+        <v>-0.01154823395901929</v>
       </c>
       <c r="C13">
-        <v>-0.01698125341528341</v>
+        <v>0.02373804794768158</v>
       </c>
       <c r="D13">
-        <v>-0.006328249995532575</v>
+        <v>-0.02091340174754571</v>
       </c>
       <c r="E13">
-        <v>-0.008074781955170397</v>
+        <v>-0.01583609881240337</v>
       </c>
       <c r="F13">
-        <v>-0.06527044550415043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0005156779280852497</v>
+      </c>
+      <c r="G13">
+        <v>0.0285998037923929</v>
+      </c>
+      <c r="H13">
+        <v>0.06031879966784918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02261010999512732</v>
+        <v>-0.00570409771305226</v>
       </c>
       <c r="C14">
-        <v>0.009190553207297628</v>
+        <v>0.02017963283653674</v>
       </c>
       <c r="D14">
-        <v>-0.01207932981247767</v>
+        <v>-0.006079658831687985</v>
       </c>
       <c r="E14">
-        <v>0.008695279505542289</v>
+        <v>0.009269745988914946</v>
       </c>
       <c r="F14">
-        <v>-0.04529775014754719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0231865113565726</v>
+      </c>
+      <c r="G14">
+        <v>0.0108119043840429</v>
+      </c>
+      <c r="H14">
+        <v>0.01729484113686141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02547204836518212</v>
+        <v>-0.01341736018778205</v>
       </c>
       <c r="C16">
-        <v>-0.01073122167816367</v>
+        <v>0.04154092072623143</v>
       </c>
       <c r="D16">
-        <v>-0.04232080807553317</v>
+        <v>0.001373925336935852</v>
       </c>
       <c r="E16">
-        <v>0.02729764741514693</v>
+        <v>0.008708281846153992</v>
       </c>
       <c r="F16">
-        <v>-0.03004941342168594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.002796229485999805</v>
+      </c>
+      <c r="G16">
+        <v>0.01320964790195054</v>
+      </c>
+      <c r="H16">
+        <v>0.03384860617292355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03370313829770062</v>
+        <v>-0.01605495782808963</v>
       </c>
       <c r="C19">
-        <v>-0.007212959909811972</v>
+        <v>0.04529973798822448</v>
       </c>
       <c r="D19">
-        <v>-0.02905569569340934</v>
+        <v>-0.01039445338876443</v>
       </c>
       <c r="E19">
-        <v>0.02948931826061699</v>
+        <v>-0.01494640651182277</v>
       </c>
       <c r="F19">
-        <v>-0.0845471124034117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.0281426954009038</v>
+      </c>
+      <c r="G19">
+        <v>0.03661427744276879</v>
+      </c>
+      <c r="H19">
+        <v>0.05464762933647097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002126578632815791</v>
+        <v>-0.0006908527471377168</v>
       </c>
       <c r="C20">
-        <v>0.01342447501064788</v>
+        <v>0.02166591825142385</v>
       </c>
       <c r="D20">
-        <v>0.0006955843466919325</v>
+        <v>-0.010338900260728</v>
       </c>
       <c r="E20">
-        <v>0.001118615561801574</v>
+        <v>-0.008000137294088938</v>
       </c>
       <c r="F20">
-        <v>-0.04748877210784774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0193853855321128</v>
+      </c>
+      <c r="G20">
+        <v>0.0208338083326674</v>
+      </c>
+      <c r="H20">
+        <v>0.02879470815003066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03045102081081502</v>
+        <v>-0.004332519063996669</v>
       </c>
       <c r="C21">
-        <v>0.00874130560110231</v>
+        <v>0.02005685043711307</v>
       </c>
       <c r="D21">
-        <v>-0.02629167648361711</v>
+        <v>-0.01315732209628234</v>
       </c>
       <c r="E21">
-        <v>0.006631185974182953</v>
+        <v>-0.009929616374902289</v>
       </c>
       <c r="F21">
-        <v>-0.03420994128655495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.02912224081368503</v>
+      </c>
+      <c r="G21">
+        <v>0.004124042132867055</v>
+      </c>
+      <c r="H21">
+        <v>0.03425751185648974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02335987844979983</v>
+        <v>-0.008185413985175725</v>
       </c>
       <c r="C24">
-        <v>-0.01143072543256424</v>
+        <v>0.04044383584250382</v>
       </c>
       <c r="D24">
-        <v>-0.02732031780745281</v>
+        <v>-0.003698754859401473</v>
       </c>
       <c r="E24">
-        <v>0.02174180823588368</v>
+        <v>0.0135832893045412</v>
       </c>
       <c r="F24">
-        <v>-0.02279106058697828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.002385527374048731</v>
+      </c>
+      <c r="G24">
+        <v>0.01032128293714768</v>
+      </c>
+      <c r="H24">
+        <v>0.03718492832306644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03437257403932346</v>
+        <v>-0.02324345847042457</v>
       </c>
       <c r="C25">
-        <v>-0.01312377953670026</v>
+        <v>0.04993865333802099</v>
       </c>
       <c r="D25">
-        <v>-0.03462384995773635</v>
+        <v>-0.006671963933748672</v>
       </c>
       <c r="E25">
-        <v>0.01556490522126487</v>
+        <v>0.01799573906422214</v>
       </c>
       <c r="F25">
-        <v>-0.03703452739507486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.00409174752957285</v>
+      </c>
+      <c r="G25">
+        <v>0.01756256706947381</v>
+      </c>
+      <c r="H25">
+        <v>0.03493320892297153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01167434688900436</v>
+        <v>-0.003265404272650819</v>
       </c>
       <c r="C26">
-        <v>1.717547513205156e-05</v>
+        <v>0.005382653206048908</v>
       </c>
       <c r="D26">
-        <v>-0.01578511356603206</v>
+        <v>-0.02277155126771901</v>
       </c>
       <c r="E26">
-        <v>-0.02207414045698887</v>
+        <v>0.001810508788328646</v>
       </c>
       <c r="F26">
-        <v>-0.04630324179077763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01108622232567217</v>
+      </c>
+      <c r="G26">
+        <v>-0.0007906961800131563</v>
+      </c>
+      <c r="H26">
+        <v>0.01600529679313563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01594060480409899</v>
+        <v>-0.00473204469288781</v>
       </c>
       <c r="C27">
-        <v>0.003103311726909363</v>
+        <v>0.003457225874262533</v>
       </c>
       <c r="D27">
-        <v>0.005260045915187148</v>
+        <v>0.001220289715505091</v>
       </c>
       <c r="E27">
-        <v>0.01802623404726651</v>
+        <v>0.002066176771328419</v>
       </c>
       <c r="F27">
-        <v>-0.01728509883371507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01173353847047747</v>
+      </c>
+      <c r="G27">
+        <v>0.00553565388138773</v>
+      </c>
+      <c r="H27">
+        <v>-0.003591323725175161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09438437336983437</v>
+        <v>-0.1885951369902368</v>
       </c>
       <c r="C28">
-        <v>-0.03020871817036695</v>
+        <v>-0.181798183713196</v>
       </c>
       <c r="D28">
-        <v>0.204147188649632</v>
+        <v>0.01450441299033871</v>
       </c>
       <c r="E28">
-        <v>-0.1156042967293961</v>
+        <v>-0.023830429272914</v>
       </c>
       <c r="F28">
-        <v>-0.005081473408537825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03427173161044868</v>
+      </c>
+      <c r="G28">
+        <v>-0.03189065790112715</v>
+      </c>
+      <c r="H28">
+        <v>-0.003381552956833354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02459637635346648</v>
+        <v>-0.01038499174807893</v>
       </c>
       <c r="C29">
-        <v>0.005390547673361962</v>
+        <v>0.01917481264470515</v>
       </c>
       <c r="D29">
-        <v>-0.01235497062079197</v>
+        <v>-0.005067180644106159</v>
       </c>
       <c r="E29">
-        <v>0.009998557384385147</v>
+        <v>0.007578946847073627</v>
       </c>
       <c r="F29">
-        <v>-0.04320048669856633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02275037576507716</v>
+      </c>
+      <c r="G29">
+        <v>0.009467804023893835</v>
+      </c>
+      <c r="H29">
+        <v>0.00721114475398878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03276865630750561</v>
+        <v>-0.0234213670566403</v>
       </c>
       <c r="C30">
-        <v>-0.05522538390665414</v>
+        <v>0.0854710247430787</v>
       </c>
       <c r="D30">
-        <v>-0.05182589670419736</v>
+        <v>-0.02168258065927359</v>
       </c>
       <c r="E30">
-        <v>0.006667264942045279</v>
+        <v>-0.00544179205999045</v>
       </c>
       <c r="F30">
-        <v>-0.0828719636820508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02345020024576453</v>
+      </c>
+      <c r="G30">
+        <v>0.04193551983600974</v>
+      </c>
+      <c r="H30">
+        <v>0.06736782805135673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04148841859944093</v>
+        <v>-0.0301479334370791</v>
       </c>
       <c r="C31">
-        <v>-0.01348733258142512</v>
+        <v>0.03063638003211691</v>
       </c>
       <c r="D31">
-        <v>-0.02043737314357061</v>
+        <v>-0.0003827524624056981</v>
       </c>
       <c r="E31">
-        <v>0.02388487297687117</v>
+        <v>0.01288723235899397</v>
       </c>
       <c r="F31">
-        <v>-0.03571514027406478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01082772388443471</v>
+      </c>
+      <c r="G31">
+        <v>-0.0008821502180425902</v>
+      </c>
+      <c r="H31">
+        <v>-0.0008822317228800896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01956588342251682</v>
+        <v>-0.0002202114023786397</v>
       </c>
       <c r="C32">
-        <v>0.02586172651375789</v>
+        <v>0.01330755937428188</v>
       </c>
       <c r="D32">
-        <v>-0.03476101063245378</v>
+        <v>0.008295765244101954</v>
       </c>
       <c r="E32">
-        <v>0.01806617867582315</v>
+        <v>0.0023056890106438</v>
       </c>
       <c r="F32">
-        <v>-0.05602185117814455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04370739682759148</v>
+      </c>
+      <c r="G32">
+        <v>0.03814951408499045</v>
+      </c>
+      <c r="H32">
+        <v>0.042393211552375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02832709640131821</v>
+        <v>-0.01455449133519868</v>
       </c>
       <c r="C33">
-        <v>-0.03066585091598007</v>
+        <v>0.04629175100621133</v>
       </c>
       <c r="D33">
-        <v>-0.04515896714439047</v>
+        <v>-0.01053057123840371</v>
       </c>
       <c r="E33">
-        <v>0.001910958653530766</v>
+        <v>-0.008978060831289702</v>
       </c>
       <c r="F33">
-        <v>-0.05863617021945864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.005688431527952544</v>
+      </c>
+      <c r="G33">
+        <v>0.001114665799723696</v>
+      </c>
+      <c r="H33">
+        <v>0.05012433708347334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02908933221282708</v>
+        <v>-0.02338211619296577</v>
       </c>
       <c r="C34">
-        <v>-0.003711934742298791</v>
+        <v>0.05052410303988495</v>
       </c>
       <c r="D34">
-        <v>-0.04175775953103418</v>
+        <v>0.009585474608650927</v>
       </c>
       <c r="E34">
-        <v>0.03287394966444531</v>
+        <v>0.02504714944933482</v>
       </c>
       <c r="F34">
-        <v>-0.0299341293581742</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.006730467463435078</v>
+      </c>
+      <c r="G34">
+        <v>0.01550280766479654</v>
+      </c>
+      <c r="H34">
+        <v>0.03722267620193665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01714451844746466</v>
+        <v>-0.009914085365900455</v>
       </c>
       <c r="C36">
-        <v>0.006169755974664431</v>
+        <v>0.00453626962116661</v>
       </c>
       <c r="D36">
-        <v>-0.002428880951936256</v>
+        <v>-0.009542641650289525</v>
       </c>
       <c r="E36">
-        <v>0.001179242056328743</v>
+        <v>0.00358919327615638</v>
       </c>
       <c r="F36">
-        <v>-0.02758840818890325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01410853064906608</v>
+      </c>
+      <c r="G36">
+        <v>-0.0008948221371653899</v>
+      </c>
+      <c r="H36">
+        <v>0.01106943195316248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01422389688500436</v>
+        <v>-0.02624472335193848</v>
       </c>
       <c r="C38">
-        <v>-0.009470360920917121</v>
+        <v>0.02186830517512407</v>
       </c>
       <c r="D38">
-        <v>-0.002531945256635146</v>
+        <v>0.01115071555256207</v>
       </c>
       <c r="E38">
-        <v>-0.02650066253384053</v>
+        <v>0.006643757831566899</v>
       </c>
       <c r="F38">
-        <v>-0.03930943744259819</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001539988195615621</v>
+      </c>
+      <c r="G38">
+        <v>0.01040953638795305</v>
+      </c>
+      <c r="H38">
+        <v>0.02832636019147394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02095042333643178</v>
+        <v>0.000620427034085456</v>
       </c>
       <c r="C39">
-        <v>-0.008514510707644189</v>
+        <v>0.08494552229195838</v>
       </c>
       <c r="D39">
-        <v>-0.05480308965485844</v>
+        <v>-0.008413486153426259</v>
       </c>
       <c r="E39">
-        <v>0.01947422282787242</v>
+        <v>0.01122454349404792</v>
       </c>
       <c r="F39">
-        <v>-0.05520250564661685</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.007685522176110705</v>
+      </c>
+      <c r="G39">
+        <v>0.02251278099869771</v>
+      </c>
+      <c r="H39">
+        <v>0.07305246951383865</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01334717368603918</v>
+        <v>-0.0176328008644198</v>
       </c>
       <c r="C40">
-        <v>-0.03652515964379261</v>
+        <v>0.02521051148461606</v>
       </c>
       <c r="D40">
-        <v>-0.0195904058763331</v>
+        <v>-0.008206738200481827</v>
       </c>
       <c r="E40">
-        <v>0.02445841716990269</v>
+        <v>-0.001537405333584996</v>
       </c>
       <c r="F40">
-        <v>-0.03088002074157341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02026537812175683</v>
+      </c>
+      <c r="G40">
+        <v>0.0248805623043373</v>
+      </c>
+      <c r="H40">
+        <v>0.04080948076972279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.007071199427141311</v>
+        <v>-0.00984027541371176</v>
       </c>
       <c r="C41">
-        <v>0.0004750319229372188</v>
+        <v>-0.008563934706288691</v>
       </c>
       <c r="D41">
-        <v>-0.00162609658278305</v>
+        <v>-0.002742267401781411</v>
       </c>
       <c r="E41">
-        <v>-0.01546819798100563</v>
+        <v>0.003277200469562665</v>
       </c>
       <c r="F41">
-        <v>0.002060623187177809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004250453870959479</v>
+      </c>
+      <c r="G41">
+        <v>-0.01311917992058061</v>
+      </c>
+      <c r="H41">
+        <v>-0.004100751515169111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2266607093551927</v>
+        <v>-0.06817317247969149</v>
       </c>
       <c r="C42">
-        <v>-0.2278153860197769</v>
+        <v>0.2009058339295818</v>
       </c>
       <c r="D42">
-        <v>-0.4366963725123719</v>
+        <v>-0.1194984321975376</v>
       </c>
       <c r="E42">
-        <v>-0.6742807384244531</v>
+        <v>-0.1366856185182611</v>
       </c>
       <c r="F42">
-        <v>0.4475253425103817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2349516052537464</v>
+      </c>
+      <c r="G42">
+        <v>-0.9164362487194407</v>
+      </c>
+      <c r="H42">
+        <v>0.08372306194234772</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.008941936093376049</v>
+        <v>-0.01133306102625753</v>
       </c>
       <c r="C43">
-        <v>-0.002507017317949921</v>
+        <v>-0.004333601628182957</v>
       </c>
       <c r="D43">
-        <v>-0.008130673900274927</v>
+        <v>-0.003161198645737105</v>
       </c>
       <c r="E43">
-        <v>-0.004715528689197746</v>
+        <v>-0.001748067436303926</v>
       </c>
       <c r="F43">
-        <v>-0.02747024881344519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004409676664367667</v>
+      </c>
+      <c r="G43">
+        <v>-0.006484775605805831</v>
+      </c>
+      <c r="H43">
+        <v>0.004470544189202438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02294276669273149</v>
+        <v>-0.005198188315874701</v>
       </c>
       <c r="C44">
-        <v>0.01218276577395482</v>
+        <v>0.04031112630672145</v>
       </c>
       <c r="D44">
-        <v>-0.02497789450771561</v>
+        <v>-0.003806510835269329</v>
       </c>
       <c r="E44">
-        <v>-0.02012496352986764</v>
+        <v>-0.005774331874252497</v>
       </c>
       <c r="F44">
-        <v>-0.07662224663281166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02658865363612856</v>
+      </c>
+      <c r="G44">
+        <v>0.0007853759587871915</v>
+      </c>
+      <c r="H44">
+        <v>0.06105432057304478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01726493419083566</v>
+        <v>-0.002058977993555873</v>
       </c>
       <c r="C46">
-        <v>-0.002319854045167265</v>
+        <v>0.01174663702421144</v>
       </c>
       <c r="D46">
-        <v>-0.03889989816336184</v>
+        <v>-0.01027135673139032</v>
       </c>
       <c r="E46">
-        <v>0.01507856449415414</v>
+        <v>-0.0005719524456565672</v>
       </c>
       <c r="F46">
-        <v>-0.07437489856317123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01317508792516412</v>
+      </c>
+      <c r="G46">
+        <v>0.006211524709547673</v>
+      </c>
+      <c r="H46">
+        <v>0.01131373259296872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07156274255518009</v>
+        <v>-0.05092315555362895</v>
       </c>
       <c r="C47">
-        <v>-0.03118128376519163</v>
+        <v>0.0659126767794158</v>
       </c>
       <c r="D47">
-        <v>-0.01719906589141695</v>
+        <v>0.009774145245443828</v>
       </c>
       <c r="E47">
-        <v>0.03422416460669793</v>
+        <v>0.01648792901420872</v>
       </c>
       <c r="F47">
-        <v>-0.007389591490322309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.007680368131237732</v>
+      </c>
+      <c r="G47">
+        <v>-0.003227667573307536</v>
+      </c>
+      <c r="H47">
+        <v>-0.036079644286655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01940059474336721</v>
+        <v>-0.01067842538248311</v>
       </c>
       <c r="C48">
-        <v>-0.005489143308281276</v>
+        <v>0.01503339015882306</v>
       </c>
       <c r="D48">
-        <v>-0.01366137813449523</v>
+        <v>-0.0001664044760819508</v>
       </c>
       <c r="E48">
-        <v>0.004073121453312101</v>
+        <v>0.003422590839498841</v>
       </c>
       <c r="F48">
-        <v>-0.02795940413233499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.007466730901249079</v>
+      </c>
+      <c r="G48">
+        <v>0.002491069982036435</v>
+      </c>
+      <c r="H48">
+        <v>0.01628586614172698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07882830263631117</v>
+        <v>-0.05510468661791685</v>
       </c>
       <c r="C50">
-        <v>-0.006452172678452203</v>
+        <v>0.06278088634220526</v>
       </c>
       <c r="D50">
-        <v>-0.03478870095001931</v>
+        <v>0.008424106547674287</v>
       </c>
       <c r="E50">
-        <v>0.02719242896215402</v>
+        <v>0.01836192509373008</v>
       </c>
       <c r="F50">
-        <v>-0.0224809012451193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02834193069187716</v>
+      </c>
+      <c r="G50">
+        <v>-0.007471078817775975</v>
+      </c>
+      <c r="H50">
+        <v>-0.0247445624287542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01881620906489555</v>
+        <v>-0.01352653411652695</v>
       </c>
       <c r="C51">
-        <v>0.00250237891609651</v>
+        <v>0.01673360858175808</v>
       </c>
       <c r="D51">
-        <v>0.007258871608420489</v>
+        <v>-0.004946281398063602</v>
       </c>
       <c r="E51">
-        <v>-0.01793332330000125</v>
+        <v>0.008729959493264047</v>
       </c>
       <c r="F51">
-        <v>-0.08923229011427133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01460698939213282</v>
+      </c>
+      <c r="G51">
+        <v>0.01010324205845393</v>
+      </c>
+      <c r="H51">
+        <v>0.04558700483024999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08923970571753446</v>
+        <v>-0.06927764849572236</v>
       </c>
       <c r="C53">
-        <v>-0.03395554883473306</v>
+        <v>0.09874873586475151</v>
       </c>
       <c r="D53">
-        <v>-0.042913264286441</v>
+        <v>0.01152810969581551</v>
       </c>
       <c r="E53">
-        <v>0.06870273695719419</v>
+        <v>0.04264899795931758</v>
       </c>
       <c r="F53">
-        <v>0.02495269449831847</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.001888985701970685</v>
+      </c>
+      <c r="G53">
+        <v>-0.002043956591337238</v>
+      </c>
+      <c r="H53">
+        <v>-0.04216466381494764</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02810164026547302</v>
+        <v>-0.02075623803845833</v>
       </c>
       <c r="C54">
-        <v>0.003742100821141732</v>
+        <v>0.0008666131271346935</v>
       </c>
       <c r="D54">
-        <v>0.00559849573457919</v>
+        <v>0.005923754914278104</v>
       </c>
       <c r="E54">
-        <v>0.009343398305982699</v>
+        <v>-0.001592179645323548</v>
       </c>
       <c r="F54">
-        <v>-0.02997927336930448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02362058277572054</v>
+      </c>
+      <c r="G54">
+        <v>0.004378652128104498</v>
+      </c>
+      <c r="H54">
+        <v>0.00444096243024404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07609121021535935</v>
+        <v>-0.04900407424756335</v>
       </c>
       <c r="C55">
-        <v>-0.02611296910603799</v>
+        <v>0.08827038924056735</v>
       </c>
       <c r="D55">
-        <v>-0.05545304169311021</v>
+        <v>0.009145463359390468</v>
       </c>
       <c r="E55">
-        <v>0.04742823332074966</v>
+        <v>0.03155859367384809</v>
       </c>
       <c r="F55">
-        <v>0.02066966753544743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.004357067941337621</v>
+      </c>
+      <c r="G55">
+        <v>-0.008300496921859728</v>
+      </c>
+      <c r="H55">
+        <v>-0.04099051803989087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1231326311798297</v>
+        <v>-0.09760449740426401</v>
       </c>
       <c r="C56">
-        <v>-0.05581368125806091</v>
+        <v>0.1315890016796116</v>
       </c>
       <c r="D56">
-        <v>-0.03983694737770683</v>
+        <v>0.02115900706725638</v>
       </c>
       <c r="E56">
-        <v>0.09720245417965438</v>
+        <v>0.04374419282014637</v>
       </c>
       <c r="F56">
-        <v>0.05216616261341533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.007403220349973688</v>
+      </c>
+      <c r="G56">
+        <v>0.005791246500330955</v>
+      </c>
+      <c r="H56">
+        <v>-0.08151411159151242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03725886858016114</v>
+        <v>-0.0200663760288964</v>
       </c>
       <c r="C57">
-        <v>-0.0184481961257335</v>
+        <v>0.02900537771337026</v>
       </c>
       <c r="D57">
-        <v>-0.02505182246539008</v>
+        <v>-0.0223413710293633</v>
       </c>
       <c r="E57">
-        <v>-0.04391733893421775</v>
+        <v>-0.0278055630085213</v>
       </c>
       <c r="F57">
-        <v>-0.04439761585810194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02044605388157432</v>
+      </c>
+      <c r="G57">
+        <v>0.006830033790746267</v>
+      </c>
+      <c r="H57">
+        <v>0.06139851840140456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.145383183052467</v>
+        <v>-0.06962333852134298</v>
       </c>
       <c r="C58">
-        <v>-0.1868450561374586</v>
+        <v>0.2274103472317516</v>
       </c>
       <c r="D58">
-        <v>-0.2062162880528109</v>
+        <v>-0.008553506061355003</v>
       </c>
       <c r="E58">
-        <v>-0.1629671847176898</v>
+        <v>-0.9223091768458322</v>
       </c>
       <c r="F58">
-        <v>-0.609569902926847</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1937620233066746</v>
+      </c>
+      <c r="G58">
+        <v>0.1377567263644923</v>
+      </c>
+      <c r="H58">
+        <v>-0.09951776449733316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07936455795440039</v>
+        <v>-0.2069175386835806</v>
       </c>
       <c r="C59">
-        <v>-0.05019742583543208</v>
+        <v>-0.1647153615696371</v>
       </c>
       <c r="D59">
-        <v>0.1718517791741684</v>
+        <v>0.02247930977371044</v>
       </c>
       <c r="E59">
-        <v>-0.07137761760437623</v>
+        <v>-0.02542236763580146</v>
       </c>
       <c r="F59">
-        <v>-0.04809541796132761</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.009001255067997106</v>
+      </c>
+      <c r="G59">
+        <v>0.00171832615227038</v>
+      </c>
+      <c r="H59">
+        <v>0.01634402482928445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1524200019410099</v>
+        <v>-0.2334700146662774</v>
       </c>
       <c r="C60">
-        <v>-0.1074142841578985</v>
+        <v>0.09863084156251826</v>
       </c>
       <c r="D60">
-        <v>0.0008772848771020632</v>
+        <v>0.01092477083114786</v>
       </c>
       <c r="E60">
-        <v>-0.03271018820716103</v>
+        <v>0.03763021869205199</v>
       </c>
       <c r="F60">
-        <v>-0.1394710561321554</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09498031912545027</v>
+      </c>
+      <c r="G60">
+        <v>0.1261947682806367</v>
+      </c>
+      <c r="H60">
+        <v>0.3755060350008607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0243225593043679</v>
+        <v>-0.01049247647015223</v>
       </c>
       <c r="C61">
-        <v>-0.009310263001696469</v>
+        <v>0.0651129699455724</v>
       </c>
       <c r="D61">
-        <v>-0.04281718017678503</v>
+        <v>-0.001362757369843685</v>
       </c>
       <c r="E61">
-        <v>0.01419984349843569</v>
+        <v>0.01257926007669053</v>
       </c>
       <c r="F61">
-        <v>-0.02912164557820945</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.001327935248861601</v>
+      </c>
+      <c r="G61">
+        <v>0.02349938682589038</v>
+      </c>
+      <c r="H61">
+        <v>0.05413628408938097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01504068554270573</v>
+        <v>-0.0077121098138434</v>
       </c>
       <c r="C63">
-        <v>0.0002107480323107362</v>
+        <v>0.02242881448612852</v>
       </c>
       <c r="D63">
-        <v>-0.01895596670433068</v>
+        <v>-0.005833921355996448</v>
       </c>
       <c r="E63">
-        <v>0.004247933324888153</v>
+        <v>0.01681151720202041</v>
       </c>
       <c r="F63">
-        <v>-0.005795457294608094</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01018246999795407</v>
+      </c>
+      <c r="G63">
+        <v>0.005568820983701035</v>
+      </c>
+      <c r="H63">
+        <v>0.0126195958819688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03965904483073991</v>
+        <v>-0.03316031851875346</v>
       </c>
       <c r="C64">
-        <v>-0.001638016215752389</v>
+        <v>0.04370329477170595</v>
       </c>
       <c r="D64">
-        <v>-0.02669308415761604</v>
+        <v>-0.0005719238094170342</v>
       </c>
       <c r="E64">
-        <v>0.01553651946872336</v>
+        <v>0.02357837381756576</v>
       </c>
       <c r="F64">
-        <v>-0.02895504691488868</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.003472193702981391</v>
+      </c>
+      <c r="G64">
+        <v>-0.004263030308711668</v>
+      </c>
+      <c r="H64">
+        <v>0.03379725328951567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04201701793503779</v>
+        <v>-0.03998506112134174</v>
       </c>
       <c r="C65">
-        <v>-0.01224525686241923</v>
+        <v>0.08311823490696471</v>
       </c>
       <c r="D65">
-        <v>-0.04022966377555587</v>
+        <v>-0.01086363955396714</v>
       </c>
       <c r="E65">
-        <v>0.03490831311012001</v>
+        <v>0.03191364400450793</v>
       </c>
       <c r="F65">
-        <v>-0.02856983016037488</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.009277223907031954</v>
+      </c>
+      <c r="G65">
+        <v>0.04157609716497433</v>
+      </c>
+      <c r="H65">
+        <v>0.05515133270290729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03405692582019256</v>
+        <v>-0.01058123661250006</v>
       </c>
       <c r="C66">
-        <v>-0.02331048981684024</v>
+        <v>0.1175156888423759</v>
       </c>
       <c r="D66">
-        <v>-0.05982685060336621</v>
+        <v>-0.004825716552859347</v>
       </c>
       <c r="E66">
-        <v>0.05621439611805208</v>
+        <v>0.01544502741875801</v>
       </c>
       <c r="F66">
-        <v>-0.05150593146278488</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01416828940781386</v>
+      </c>
+      <c r="G66">
+        <v>0.04951279837083994</v>
+      </c>
+      <c r="H66">
+        <v>0.07516095001829766</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02694257542356197</v>
+        <v>-0.05047103524106682</v>
       </c>
       <c r="C67">
-        <v>-0.01737276083248944</v>
+        <v>0.03210446096935619</v>
       </c>
       <c r="D67">
-        <v>0.005687027102867372</v>
+        <v>0.01134987485208229</v>
       </c>
       <c r="E67">
-        <v>-0.01862238797900616</v>
+        <v>0.01376268590933291</v>
       </c>
       <c r="F67">
-        <v>-0.02604184686436475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.002522164342758357</v>
+      </c>
+      <c r="G67">
+        <v>0.01853255784336847</v>
+      </c>
+      <c r="H67">
+        <v>0.02693071925381407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09218447474565621</v>
+        <v>-0.2064977413494434</v>
       </c>
       <c r="C68">
-        <v>-0.04357801300316681</v>
+        <v>-0.2062052136953642</v>
       </c>
       <c r="D68">
-        <v>0.1980493059466258</v>
+        <v>0.002698060494570111</v>
       </c>
       <c r="E68">
-        <v>-0.09112652882260501</v>
+        <v>-0.03981928826674035</v>
       </c>
       <c r="F68">
-        <v>-0.0327509204389094</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02531857753569027</v>
+      </c>
+      <c r="G68">
+        <v>-0.04229694585768056</v>
+      </c>
+      <c r="H68">
+        <v>-0.02922919415648672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06045302732791908</v>
+        <v>-0.05391156545682568</v>
       </c>
       <c r="C69">
-        <v>-0.02687872604602608</v>
+        <v>0.06245927191066364</v>
       </c>
       <c r="D69">
-        <v>-0.01665203602500755</v>
+        <v>0.01459524654058698</v>
       </c>
       <c r="E69">
-        <v>0.03904541732512878</v>
+        <v>0.02930439589779107</v>
       </c>
       <c r="F69">
-        <v>-0.01876283653521874</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0001157577435783142</v>
+      </c>
+      <c r="G69">
+        <v>0.01321065862208416</v>
+      </c>
+      <c r="H69">
+        <v>-0.007809488037760063</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0893517879349726</v>
+        <v>-0.1842268105923503</v>
       </c>
       <c r="C71">
-        <v>-0.04742581040148639</v>
+        <v>-0.1601854200594313</v>
       </c>
       <c r="D71">
-        <v>0.1903355560639187</v>
+        <v>0.009294248245445429</v>
       </c>
       <c r="E71">
-        <v>-0.1306077508835454</v>
+        <v>-0.04358516122369162</v>
       </c>
       <c r="F71">
-        <v>-0.02360424367587665</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02386797452998074</v>
+      </c>
+      <c r="G71">
+        <v>-0.04465886032350273</v>
+      </c>
+      <c r="H71">
+        <v>-0.006657128768315932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09304854108920334</v>
+        <v>-0.05444937978474397</v>
       </c>
       <c r="C72">
-        <v>-0.05217035279894294</v>
+        <v>0.1007831304127113</v>
       </c>
       <c r="D72">
-        <v>-0.07462909422635228</v>
+        <v>0.0163059056079334</v>
       </c>
       <c r="E72">
-        <v>0.08186188299640142</v>
+        <v>0.03898678096660689</v>
       </c>
       <c r="F72">
-        <v>-0.1361929668583522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02412664182745832</v>
+      </c>
+      <c r="G72">
+        <v>0.06455359004061963</v>
+      </c>
+      <c r="H72">
+        <v>0.08235175207633433</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1805124955864088</v>
+        <v>-0.306002168578995</v>
       </c>
       <c r="C73">
-        <v>-0.176233508471605</v>
+        <v>0.1520669987524767</v>
       </c>
       <c r="D73">
-        <v>-0.0260428729098456</v>
+        <v>0.0103331648725406</v>
       </c>
       <c r="E73">
-        <v>-0.06713284447731226</v>
+        <v>0.0295348435611882</v>
       </c>
       <c r="F73">
-        <v>-0.1549362784963173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1518245772135977</v>
+      </c>
+      <c r="G73">
+        <v>0.1341869666944567</v>
+      </c>
+      <c r="H73">
+        <v>0.4707943918784867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1156080282357991</v>
+        <v>-0.09543510380076514</v>
       </c>
       <c r="C74">
-        <v>-0.0534051809027019</v>
+        <v>0.1351615003383832</v>
       </c>
       <c r="D74">
-        <v>-0.03955148629868264</v>
+        <v>0.02115242281106755</v>
       </c>
       <c r="E74">
-        <v>0.07983094406435925</v>
+        <v>0.04488416292815093</v>
       </c>
       <c r="F74">
-        <v>0.05347514269740906</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.00201368708821568</v>
+      </c>
+      <c r="G74">
+        <v>0.003701765504449534</v>
+      </c>
+      <c r="H74">
+        <v>-0.05840367880875555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2056664451183459</v>
+        <v>-0.2014785489826572</v>
       </c>
       <c r="C75">
-        <v>-0.1115867475796784</v>
+        <v>0.2237274976345834</v>
       </c>
       <c r="D75">
-        <v>-0.03579626361297551</v>
+        <v>0.04489338620366541</v>
       </c>
       <c r="E75">
-        <v>0.1964314182697201</v>
+        <v>0.07308904545366719</v>
       </c>
       <c r="F75">
-        <v>0.07122568148729333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02874111213454017</v>
+      </c>
+      <c r="G75">
+        <v>0.02855564934238289</v>
+      </c>
+      <c r="H75">
+        <v>-0.1806358372274329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2505499314563211</v>
+        <v>-0.1394180673830822</v>
       </c>
       <c r="C76">
-        <v>-0.0917543477969488</v>
+        <v>0.1913934805896853</v>
       </c>
       <c r="D76">
-        <v>-0.04640931228526396</v>
+        <v>0.03754644756578773</v>
       </c>
       <c r="E76">
-        <v>0.2485144309659861</v>
+        <v>0.09367384884690839</v>
       </c>
       <c r="F76">
-        <v>0.1391936322015727</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01333398249797814</v>
+      </c>
+      <c r="G76">
+        <v>0.01044857129255281</v>
+      </c>
+      <c r="H76">
+        <v>-0.1514453155707939</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08622958043933848</v>
+        <v>-0.04220141055065879</v>
       </c>
       <c r="C77">
-        <v>-0.05162863577026525</v>
+        <v>0.08695006292704582</v>
       </c>
       <c r="D77">
-        <v>-0.08536502029913939</v>
+        <v>-0.008705628346085095</v>
       </c>
       <c r="E77">
-        <v>-0.05701816733030363</v>
+        <v>-0.02643640591664555</v>
       </c>
       <c r="F77">
-        <v>-0.07465400961323453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01546778607826052</v>
+      </c>
+      <c r="G77">
+        <v>-0.01938851425573279</v>
+      </c>
+      <c r="H77">
+        <v>0.01493711381487495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04657754230805799</v>
+        <v>-0.02248026239348293</v>
       </c>
       <c r="C78">
-        <v>-0.006796485402313703</v>
+        <v>0.07564977717507095</v>
       </c>
       <c r="D78">
-        <v>-0.09200012330489642</v>
+        <v>-0.002357025069760569</v>
       </c>
       <c r="E78">
-        <v>0.02407760475865635</v>
+        <v>9.642258688423001e-05</v>
       </c>
       <c r="F78">
-        <v>-0.09458331172864375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01424844638426167</v>
+      </c>
+      <c r="G78">
+        <v>0.02638674806959274</v>
+      </c>
+      <c r="H78">
+        <v>0.08340796335172183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5293246568895507</v>
+        <v>-0.0948288460507891</v>
       </c>
       <c r="C80">
-        <v>0.8233332476364997</v>
+        <v>0.1182126607022168</v>
       </c>
       <c r="D80">
-        <v>-0.03941667814232602</v>
+        <v>0.003452024390619059</v>
       </c>
       <c r="E80">
-        <v>-0.1045628029149148</v>
+        <v>0.1959607688314543</v>
       </c>
       <c r="F80">
-        <v>-0.02416467603447542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9094920419012642</v>
+      </c>
+      <c r="G80">
+        <v>-0.2163217271625958</v>
+      </c>
+      <c r="H80">
+        <v>0.12252136751194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1631489448780758</v>
+        <v>-0.1220954278718356</v>
       </c>
       <c r="C81">
-        <v>-0.0744371696540103</v>
+        <v>0.1437113514887803</v>
       </c>
       <c r="D81">
-        <v>-0.0218132218728824</v>
+        <v>0.0268062784017121</v>
       </c>
       <c r="E81">
-        <v>0.1564623722813481</v>
+        <v>0.0502333258908426</v>
       </c>
       <c r="F81">
-        <v>0.04859218345655397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.001927340825581716</v>
+      </c>
+      <c r="G81">
+        <v>0.01374987252332852</v>
+      </c>
+      <c r="H81">
+        <v>-0.1118773982485853</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.00448175654562121</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0029196473393992</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0008097762473683908</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01212910043577967</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.003477815376959808</v>
+      </c>
+      <c r="G82">
+        <v>0.001323590650568439</v>
+      </c>
+      <c r="H82">
+        <v>0.001396140304015149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0337026641164603</v>
+        <v>-0.02262258990602095</v>
       </c>
       <c r="C83">
-        <v>-0.02185161437970509</v>
+        <v>0.02111921922175559</v>
       </c>
       <c r="D83">
-        <v>-0.02228833156534206</v>
+        <v>-0.003027164103628271</v>
       </c>
       <c r="E83">
-        <v>-0.03475967319804103</v>
+        <v>-0.01576459791102176</v>
       </c>
       <c r="F83">
-        <v>-0.04168572189239386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.007617569478628379</v>
+      </c>
+      <c r="G83">
+        <v>0.0009249831577894469</v>
+      </c>
+      <c r="H83">
+        <v>0.04248489358729325</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2272144125979784</v>
+        <v>-0.1938675776689568</v>
       </c>
       <c r="C85">
-        <v>-0.1172845696367194</v>
+        <v>0.2248463106426029</v>
       </c>
       <c r="D85">
-        <v>-0.05051390217194249</v>
+        <v>0.03269906999046442</v>
       </c>
       <c r="E85">
-        <v>0.222841199393432</v>
+        <v>0.1008885765206631</v>
       </c>
       <c r="F85">
-        <v>0.09500859382683075</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05168193910910798</v>
+      </c>
+      <c r="G85">
+        <v>0.03059249143123097</v>
+      </c>
+      <c r="H85">
+        <v>-0.1279446490879239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0002008669052971932</v>
+        <v>-0.006813898901635557</v>
       </c>
       <c r="C86">
-        <v>0.003412907781860405</v>
+        <v>0.03698038890647232</v>
       </c>
       <c r="D86">
-        <v>-0.04802275810856352</v>
+        <v>-0.006459485743899992</v>
       </c>
       <c r="E86">
-        <v>0.008020084708118862</v>
+        <v>-0.00379415778921701</v>
       </c>
       <c r="F86">
-        <v>-0.0830421619611685</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0102576915774406</v>
+      </c>
+      <c r="G86">
+        <v>0.002299836864497278</v>
+      </c>
+      <c r="H86">
+        <v>0.06636364002367581</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02740008784629882</v>
+        <v>-0.0004375659053860431</v>
       </c>
       <c r="C87">
-        <v>-0.008072007868078195</v>
+        <v>0.0397840711674927</v>
       </c>
       <c r="D87">
-        <v>-0.03931998109843918</v>
+        <v>-0.008701074798281735</v>
       </c>
       <c r="E87">
-        <v>-0.009177595902421594</v>
+        <v>-0.03862826769994545</v>
       </c>
       <c r="F87">
-        <v>-0.09698092048187815</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02680562031880605</v>
+      </c>
+      <c r="G87">
+        <v>0.01791733324982395</v>
+      </c>
+      <c r="H87">
+        <v>0.07997864843671354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.031638346174865</v>
+        <v>-0.04327809102439577</v>
       </c>
       <c r="C88">
-        <v>-0.004900496879385326</v>
+        <v>0.02566472873634193</v>
       </c>
       <c r="D88">
-        <v>0.004487821128478483</v>
+        <v>-0.0171385597518085</v>
       </c>
       <c r="E88">
-        <v>0.01198318822182168</v>
+        <v>0.009942221250434393</v>
       </c>
       <c r="F88">
-        <v>0.003081673538139991</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01624746179381295</v>
+      </c>
+      <c r="G88">
+        <v>0.01182256262300472</v>
+      </c>
+      <c r="H88">
+        <v>-0.006343013207837133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1465928859374907</v>
+        <v>-0.319592653972482</v>
       </c>
       <c r="C89">
-        <v>-0.1047801631290028</v>
+        <v>-0.2910904588572999</v>
       </c>
       <c r="D89">
-        <v>0.3434533059185422</v>
+        <v>0.01505954961660178</v>
       </c>
       <c r="E89">
-        <v>-0.1104222132516163</v>
+        <v>-0.03348751382114052</v>
       </c>
       <c r="F89">
-        <v>-0.04094710087972071</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.00566994152875689</v>
+      </c>
+      <c r="G89">
+        <v>-0.02659603996772487</v>
+      </c>
+      <c r="H89">
+        <v>-0.02370269664461078</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1160860351634156</v>
+        <v>-0.267280292483305</v>
       </c>
       <c r="C90">
-        <v>-0.05430157225173093</v>
+        <v>-0.2640892639477469</v>
       </c>
       <c r="D90">
-        <v>0.3212114534677237</v>
+        <v>0.0152216160782355</v>
       </c>
       <c r="E90">
-        <v>-0.1187592667581281</v>
+        <v>-0.04139661126277412</v>
       </c>
       <c r="F90">
-        <v>0.01685168265798637</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02392112784367361</v>
+      </c>
+      <c r="G90">
+        <v>-0.05065298453864093</v>
+      </c>
+      <c r="H90">
+        <v>-0.05698314461925556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2523855879669783</v>
+        <v>-0.1853211697372308</v>
       </c>
       <c r="C91">
-        <v>-0.1447019448657055</v>
+        <v>0.195578823535053</v>
       </c>
       <c r="D91">
-        <v>-0.06471395995153048</v>
+        <v>0.04052276398635247</v>
       </c>
       <c r="E91">
-        <v>0.2034050485893083</v>
+        <v>0.08093706050287043</v>
       </c>
       <c r="F91">
-        <v>0.1870176269663066</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.03673033034985963</v>
+      </c>
+      <c r="G91">
+        <v>-0.006481220703726458</v>
+      </c>
+      <c r="H91">
+        <v>-0.1863236439444271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1771068694300054</v>
+        <v>-0.2811144162293826</v>
       </c>
       <c r="C92">
-        <v>-0.09940234857586058</v>
+        <v>-0.1824283545806643</v>
       </c>
       <c r="D92">
-        <v>0.3907030164206919</v>
+        <v>0.06016225013687675</v>
       </c>
       <c r="E92">
-        <v>-0.03450567058346958</v>
+        <v>-0.03955515440233073</v>
       </c>
       <c r="F92">
-        <v>0.08799661042068387</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03831019173303481</v>
+      </c>
+      <c r="G92">
+        <v>-0.02055599887604556</v>
+      </c>
+      <c r="H92">
+        <v>-0.144202865315881</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1296955076136834</v>
+        <v>-0.304088933006688</v>
       </c>
       <c r="C93">
-        <v>-0.1108339459839177</v>
+        <v>-0.2497828642905496</v>
       </c>
       <c r="D93">
-        <v>0.368598261770982</v>
+        <v>0.02476896907222629</v>
       </c>
       <c r="E93">
-        <v>-0.1777286802161314</v>
+        <v>-0.05472292307605851</v>
       </c>
       <c r="F93">
-        <v>0.0281990487583328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01395898890822738</v>
+      </c>
+      <c r="G93">
+        <v>-0.04239138142137124</v>
+      </c>
+      <c r="H93">
+        <v>0.001033929190267567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2654368841345819</v>
+        <v>-0.2299121176720972</v>
       </c>
       <c r="C94">
-        <v>-0.1716283818575782</v>
+        <v>0.2375215158420783</v>
       </c>
       <c r="D94">
-        <v>-0.008855476075208575</v>
+        <v>0.03162638540074643</v>
       </c>
       <c r="E94">
-        <v>0.288599865616182</v>
+        <v>0.1114885749653986</v>
       </c>
       <c r="F94">
-        <v>0.07105037856910824</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07635704937579803</v>
+      </c>
+      <c r="G94">
+        <v>0.08391210638428241</v>
+      </c>
+      <c r="H94">
+        <v>-0.4699853798278142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0337880236577463</v>
+        <v>-0.04198306934898124</v>
       </c>
       <c r="C95">
-        <v>-0.1075076239071665</v>
+        <v>0.1095749031367251</v>
       </c>
       <c r="D95">
-        <v>-0.04347258570082954</v>
+        <v>0.01305120422782231</v>
       </c>
       <c r="E95">
-        <v>0.0188181488377594</v>
+        <v>-0.03942765440945577</v>
       </c>
       <c r="F95">
-        <v>-0.03573762647036928</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08293059355843017</v>
+      </c>
+      <c r="G95">
+        <v>0.02032235497010961</v>
+      </c>
+      <c r="H95">
+        <v>0.06213289364818544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1564812913780591</v>
+        <v>-0.1879032372137361</v>
       </c>
       <c r="C98">
-        <v>-0.1233020644798825</v>
+        <v>0.07355051784352813</v>
       </c>
       <c r="D98">
-        <v>0.0131380823452928</v>
+        <v>0.03214031595744583</v>
       </c>
       <c r="E98">
-        <v>-0.09663865757058483</v>
+        <v>-0.02157551703957294</v>
       </c>
       <c r="F98">
-        <v>-0.1331417677587561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06753820853141043</v>
+      </c>
+      <c r="G98">
+        <v>0.04751403260918817</v>
+      </c>
+      <c r="H98">
+        <v>0.3232192618791171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008745009584396137</v>
+        <v>-0.004245319423639887</v>
       </c>
       <c r="C101">
-        <v>0.006767070869977887</v>
+        <v>0.0204246780898444</v>
       </c>
       <c r="D101">
-        <v>-0.03644701801185204</v>
+        <v>-0.006078039555217391</v>
       </c>
       <c r="E101">
-        <v>-0.01344403915364675</v>
+        <v>-0.03061034727194232</v>
       </c>
       <c r="F101">
-        <v>-0.1852666576099357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03480085801816805</v>
+      </c>
+      <c r="G101">
+        <v>0.02649876656356464</v>
+      </c>
+      <c r="H101">
+        <v>0.007854984283455957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1102144638263242</v>
+        <v>-0.09931345027011701</v>
       </c>
       <c r="C102">
-        <v>-0.05582044665958463</v>
+        <v>0.1084078596420311</v>
       </c>
       <c r="D102">
-        <v>-0.02283446198891648</v>
+        <v>0.009233919715192518</v>
       </c>
       <c r="E102">
-        <v>0.1105685459000007</v>
+        <v>0.05342542088823204</v>
       </c>
       <c r="F102">
-        <v>0.06774780247855189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02263796936914222</v>
+      </c>
+      <c r="G102">
+        <v>0.0169711244947569</v>
+      </c>
+      <c r="H102">
+        <v>-0.06994532298566324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04008696458390397</v>
+        <v>-0.009713952804113786</v>
       </c>
       <c r="C103">
-        <v>-0.002582206460542534</v>
+        <v>0.01402465158915347</v>
       </c>
       <c r="D103">
-        <v>-0.01379986491011627</v>
+        <v>0.001306492071729536</v>
       </c>
       <c r="E103">
-        <v>0.04050415319632285</v>
+        <v>0.004252365862266614</v>
       </c>
       <c r="F103">
-        <v>-0.008914496581210329</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01578052668711759</v>
+      </c>
+      <c r="G103">
+        <v>0.000878932812744217</v>
+      </c>
+      <c r="H103">
+        <v>-0.009875740156074729</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.09428360717846929</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.01325062946924022</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9814047617771686</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04289326127101868</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01790960618179848</v>
+      </c>
+      <c r="G104">
+        <v>0.1109248683691101</v>
+      </c>
+      <c r="H104">
+        <v>-0.06034692423670141</v>
       </c>
     </row>
   </sheetData>
